--- a/Descripción de Variables.xlsx
+++ b/Descripción de Variables.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martín\Documents\repos\Data Science\Clases HackSpace 2019 - II\Clase4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F5FD9-9F42-4A1E-B9F9-3B4220CC9B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -298,15 +307,9 @@
     <t>LowQualFinSF</t>
   </si>
   <si>
-    <t>Low quality finished square feet (all floors) // Piso terminado de baja calidad (que falta arreglar) metros cuadrados</t>
-  </si>
-  <si>
     <t>GrLivArea</t>
   </si>
   <si>
-    <t>Pies cuadrados encima del piso???</t>
-  </si>
-  <si>
     <t>BsmtFullBath</t>
   </si>
   <si>
@@ -500,39 +503,47 @@
   </si>
   <si>
     <t>Condiciones especiales de la venta</t>
+  </si>
+  <si>
+    <t>Superficie habitable por encima del nivel del suelo (pies cuadrados)</t>
+  </si>
+  <si>
+    <t>Piso terminado de baja calidad (que falta arreglar) metros cuadrados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -542,30 +553,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -575,80 +604,370 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D2" sqref="D2" pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="94.43"/>
+    <col min="4" max="4" width="94.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -660,9 +979,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
@@ -674,9 +993,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -688,9 +1007,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -702,9 +1021,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
@@ -716,9 +1035,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -730,9 +1049,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
@@ -744,9 +1063,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>16</v>
@@ -758,9 +1077,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -772,9 +1091,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>20</v>
@@ -786,9 +1105,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>22</v>
@@ -800,9 +1119,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>24</v>
@@ -814,9 +1133,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -828,9 +1147,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>28</v>
@@ -842,9 +1161,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
@@ -856,9 +1175,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>32</v>
@@ -870,9 +1189,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>34</v>
@@ -884,9 +1203,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>36</v>
@@ -898,9 +1217,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>38</v>
@@ -912,9 +1231,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20" s="5">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>40</v>
@@ -926,9 +1245,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>42</v>
@@ -940,9 +1259,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>44</v>
@@ -954,9 +1273,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>46</v>
@@ -968,9 +1287,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>48</v>
@@ -982,9 +1301,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>50</v>
@@ -996,9 +1315,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>52</v>
@@ -1010,9 +1329,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4">
       <c r="A27" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>54</v>
@@ -1024,9 +1343,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4">
       <c r="A28" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>56</v>
@@ -1038,9 +1357,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4">
       <c r="A29" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>58</v>
@@ -1052,9 +1371,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4">
       <c r="A30" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>60</v>
@@ -1066,9 +1385,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4">
       <c r="A31" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>62</v>
@@ -1080,9 +1399,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4">
       <c r="A32" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>64</v>
@@ -1094,9 +1413,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="8">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>66</v>
@@ -1110,9 +1429,9 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>68</v>
@@ -1126,9 +1445,9 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="8">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>70</v>
@@ -1142,9 +1461,9 @@
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>72</v>
@@ -1158,9 +1477,9 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="8">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>74</v>
@@ -1174,9 +1493,9 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="8">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>76</v>
@@ -1190,9 +1509,9 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>78</v>
@@ -1206,9 +1525,9 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="8">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>80</v>
@@ -1222,9 +1541,9 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="8">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>82</v>
@@ -1238,9 +1557,9 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="8">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>84</v>
@@ -1254,9 +1573,9 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="8">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>86</v>
@@ -1270,9 +1589,9 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="8">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>88</v>
@@ -1286,9 +1605,9 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="8">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>90</v>
@@ -1302,9 +1621,9 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="8">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>92</v>
@@ -1318,9 +1637,9 @@
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="8">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>94</v>
@@ -1329,556 +1648,556 @@
         <v>4</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="8">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="8">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="8">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="8">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="8">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="8">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="8">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="8">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="8">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="8">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="8">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="8">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="8">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="8">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="8">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="8">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="8">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="8">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="8">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="8">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6">
       <c r="A69" s="8">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="12"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6">
       <c r="A70" s="8">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="12"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6">
       <c r="A71" s="8">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6">
       <c r="A72" s="8">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6">
       <c r="A73" s="8">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="8">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="8">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="8">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="8">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="8">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="8">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="8">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="8">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>